--- a/data/tokyo_roof.xlsx
+++ b/data/tokyo_roof.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AA6951-88C7-46A3-BE90-1581D6C234B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28680" yWindow="705" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>1～2階（低層）</t>
     <rPh sb="3" eb="4">
@@ -152,14 +164,297 @@
   </si>
   <si>
     <t>東京都23区における屋根面積の実態把握と屋上緑化可能面積の推計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>屋根面積（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <rPh sb="0" eb="4">
+      <t>ヤネメンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>耐火構造</t>
+    </r>
+    <rPh sb="0" eb="4">
+      <t>タイカコウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>木造系</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>モクゾウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>住宅系</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジュウタク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>商業系</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>ショウギョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>工業系</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>コウギョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>階（低層）</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>階（中層）</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>階（高層）</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～階（超高層）</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>チョウコウソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>合計</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +468,19 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -327,28 +635,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,6 +663,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -457,6 +795,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -492,6 +847,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -667,418 +1039,426 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C6:C7"/>
+      <selection activeCell="J5" sqref="J5:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="I3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="I3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="L4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="M4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="N4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="O4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="32">
+        <v>347.2</v>
+      </c>
+      <c r="C5" s="33">
+        <v>207.6</v>
+      </c>
+      <c r="D5" s="34">
+        <v>245.1</v>
+      </c>
+      <c r="E5" s="35">
+        <v>7133.9</v>
+      </c>
+      <c r="F5" s="35">
+        <v>270.5</v>
+      </c>
+      <c r="G5" s="34">
+        <v>1370.6</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
-        <v>347.2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>207.6</v>
-      </c>
-      <c r="D5" s="3">
-        <v>245.1</v>
-      </c>
-      <c r="E5" s="9">
-        <v>7133.9</v>
-      </c>
-      <c r="F5" s="9">
-        <v>270.5</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1370.6</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="17">
+        <v>35267</v>
+      </c>
+      <c r="K5" s="19">
+        <v>8312</v>
+      </c>
+      <c r="L5" s="18">
+        <v>8826</v>
+      </c>
+      <c r="M5" s="19">
+        <v>1051102</v>
+      </c>
+      <c r="N5" s="19">
+        <v>25159</v>
+      </c>
+      <c r="O5" s="18">
+        <v>94671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1954.9</v>
+      </c>
+      <c r="C6" s="33">
+        <v>622.70000000000005</v>
+      </c>
+      <c r="D6" s="34">
+        <v>395.2</v>
+      </c>
+      <c r="E6" s="35">
+        <v>424.4</v>
+      </c>
+      <c r="F6" s="35">
+        <v>43.3</v>
+      </c>
+      <c r="G6" s="34">
+        <v>109.5</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="17">
+        <v>133820</v>
+      </c>
+      <c r="K6" s="19">
+        <v>32626</v>
+      </c>
+      <c r="L6" s="18">
+        <v>14198</v>
+      </c>
+      <c r="M6" s="19">
+        <v>59075</v>
+      </c>
+      <c r="N6" s="19">
+        <v>3586</v>
+      </c>
+      <c r="O6" s="18">
+        <v>7416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="32">
+        <v>810.3</v>
+      </c>
+      <c r="C7" s="33">
+        <v>716.8</v>
+      </c>
+      <c r="D7" s="34">
+        <v>93.7</v>
+      </c>
+      <c r="E7" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="35">
+        <v>1.7</v>
+      </c>
+      <c r="G7" s="34">
+        <v>2.1</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="17">
+        <v>21063</v>
+      </c>
+      <c r="K7" s="19">
+        <v>20010</v>
+      </c>
+      <c r="L7" s="18">
+        <v>962</v>
+      </c>
+      <c r="M7" s="19">
+        <v>94</v>
+      </c>
+      <c r="N7" s="19">
+        <v>77</v>
+      </c>
+      <c r="O7" s="18">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="32">
+        <v>14.7</v>
+      </c>
+      <c r="C8" s="35">
+        <v>67.3</v>
+      </c>
+      <c r="D8" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="35">
         <v>0</v>
       </c>
-      <c r="J5" s="1">
-        <v>35267</v>
-      </c>
-      <c r="K5" s="9">
-        <v>8312</v>
-      </c>
-      <c r="L5" s="3">
-        <v>8826</v>
-      </c>
-      <c r="M5" s="9">
-        <v>1051102</v>
-      </c>
-      <c r="N5" s="9">
-        <v>25159</v>
-      </c>
-      <c r="O5" s="3">
-        <v>94671</v>
+      <c r="F8" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="34">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="17">
+        <v>102</v>
+      </c>
+      <c r="K8" s="19">
+        <v>256</v>
+      </c>
+      <c r="L8" s="18">
+        <v>4</v>
+      </c>
+      <c r="M8" s="19">
+        <v>3</v>
+      </c>
+      <c r="N8" s="19">
+        <v>1</v>
+      </c>
+      <c r="O8" s="18">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1954.9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>622.70000000000005</v>
-      </c>
-      <c r="D6" s="3">
-        <v>395.2</v>
-      </c>
-      <c r="E6" s="9">
-        <v>424.4</v>
-      </c>
-      <c r="F6" s="9">
-        <v>43.3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>109.5</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>133820</v>
-      </c>
-      <c r="K6" s="9">
-        <v>32626</v>
-      </c>
-      <c r="L6" s="3">
-        <v>14198</v>
-      </c>
-      <c r="M6" s="9">
-        <v>59075</v>
-      </c>
-      <c r="N6" s="9">
-        <v>3586</v>
-      </c>
-      <c r="O6" s="3">
-        <v>7416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>810.3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>716.8</v>
-      </c>
-      <c r="D7" s="3">
-        <v>93.7</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1">
-        <v>21063</v>
-      </c>
-      <c r="K7" s="9">
-        <v>20010</v>
-      </c>
-      <c r="L7" s="3">
-        <v>962</v>
-      </c>
-      <c r="M7" s="9">
-        <v>94</v>
-      </c>
-      <c r="N7" s="9">
-        <v>77</v>
-      </c>
-      <c r="O7" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1">
-        <v>14.7</v>
-      </c>
-      <c r="C8" s="9">
-        <v>67.3</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1">
-        <v>102</v>
-      </c>
-      <c r="K8" s="9">
-        <v>256</v>
-      </c>
-      <c r="L8" s="3">
-        <v>4</v>
-      </c>
-      <c r="M8" s="9">
-        <v>3</v>
-      </c>
-      <c r="N8" s="9">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="37">
         <f t="shared" ref="B9:G9" si="0">SUM(B5:B8)</f>
         <v>3127.0999999999995</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="38">
         <f t="shared" si="0"/>
         <v>1614.3999999999999</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="39">
         <f t="shared" si="0"/>
         <v>734.1</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="38">
         <f t="shared" si="0"/>
         <v>7559.7999999999993</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="38">
         <f t="shared" si="0"/>
         <v>315.8</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="39">
         <f t="shared" si="0"/>
         <v>1482.1999999999998</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="20">
         <f t="shared" ref="J9:O9" si="1">SUM(J5:J8)</f>
         <v>190252</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="21">
         <f t="shared" si="1"/>
         <v>61204</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="22">
         <f t="shared" si="1"/>
         <v>23990</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="21">
         <f t="shared" si="1"/>
         <v>1110274</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="21">
         <f t="shared" si="1"/>
         <v>28823</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="22">
         <f t="shared" si="1"/>
         <v>102155</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <f>(B5+E5+B6+E6)/(J5+M5+J6+M6)</f>
         <v>7.7078695249768615E-3</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <f t="shared" ref="C13:D13" si="2">(C5+F5+C6+F6)/(K5+N5+K6+N6)</f>
         <v>1.6418638692363992E-2</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <f t="shared" si="2"/>
         <v>1.6948150042762025E-2</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <f>B13/$B$13</f>
         <v>1</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <f t="shared" ref="C14:D14" si="3">C13/$B$13</f>
         <v>2.1301137284641931</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <f t="shared" si="3"/>
         <v>2.1988112263502413</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
